--- a/target/test-classes/com/DEvents/tests/Config/APITestControl.xlsx
+++ b/target/test-classes/com/DEvents/tests/Config/APITestControl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shmurali\Documents\AppiumAutomation\workspace\APIAutoTestingDEvents\src\test\java\com\DEvents\tests\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E485D1F3-4AAB-4234-8D5A-026A9B7FA890}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81CA48A-6B3C-43BF-AB44-C291EEEC8AD7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F5E0994F-369B-48A5-9E67-1D514141CDEE}"/>
   </bookViews>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Test Description</t>
   </si>
   <si>
-    <t>URL</t>
-  </si>
-  <si>
     <t>HTTP Request Type</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
     <t>gzip</t>
   </si>
   <si>
-    <t>https://devents.azure-api.net/Event/GetParticipants</t>
-  </si>
-  <si>
     <t>200</t>
   </si>
   <si>
@@ -109,6 +103,18 @@
   </si>
   <si>
     <t>select distinct replace(USER_EMAIL_ID,'@deloitte.com','') as UserId from devents.de_event_users</t>
+  </si>
+  <si>
+    <t>BaseURL</t>
+  </si>
+  <si>
+    <t>pathQuery</t>
+  </si>
+  <si>
+    <t>https://devents.azure-api.net/Event</t>
+  </si>
+  <si>
+    <t>/GetParticipants</t>
   </si>
 </sst>
 </file>
@@ -534,117 +540,125 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DEF206-1F0B-42C7-BAD9-C7ADDD87ECBB}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.109375" customWidth="1"/>
-    <col min="3" max="3" width="63.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.5546875" customWidth="1"/>
-    <col min="6" max="6" width="58.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="39.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="58.44140625" customWidth="1"/>
+    <col min="3" max="4" width="63.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5546875" customWidth="1"/>
+    <col min="7" max="7" width="58.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="58.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="N2" s="7">
+        <v>5</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="7">
-        <v>5</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="K3" s="2" t="s">
-        <v>24</v>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L3" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
